--- a/个人日报/个人日报_贾聪.xlsx
+++ b/个人日报/个人日报_贾聪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="封面" sheetId="6" r:id="rId3"/>
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
+    <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -375,6 +376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>学习</t>
     </r>
     <r>
@@ -396,6 +402,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>学习</t>
     </r>
     <r>
@@ -415,16 +426,61 @@
       <t>语言结构体知识</t>
     </r>
   </si>
+  <si>
+    <t>2019.07.20</t>
+  </si>
+  <si>
+    <r>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言链表数据结构知识</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言文件读写相关知识</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -679,6 +735,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -686,36 +749,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -728,42 +781,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -774,20 +795,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -807,16 +816,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -846,7 +902,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,13 +1034,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,139 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,6 +1525,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color indexed="62"/>
       </bottom>
@@ -1505,41 +1585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,11 +1603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,157 +1634,157 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1776,207 +1832,203 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1987,6 +2039,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -15256,6 +15312,79 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5364480" y="76200"/>
+          <a:ext cx="1213485" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="76200"/>
           <a:ext cx="1213485" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16607,304 +16736,304 @@
         <v>31</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="60">
         <v>8</v>
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B4" s="13" t="s">
+    <row r="4" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B5" s="16" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" s="14" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="64"/>
-    </row>
-    <row r="6" s="15" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B6" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" s="14" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" s="15" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B7" s="22" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" s="14" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B8" s="25" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B9" s="28" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" s="26" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="68" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B10" s="34">
+    <row r="10" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36">
         <v>1.5</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B11" s="34">
+    <row r="11" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="33">
         <v>2</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36">
         <v>1.5</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="41">
+    <row r="12" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="39">
         <v>3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36">
         <v>2</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B13" s="34">
+    <row r="13" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="33">
         <v>4</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="71"/>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B14" s="34">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="33">
         <v>5</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="71"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B15" s="41">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="39">
         <v>6</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="71"/>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B16" s="34">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="33">
         <v>7</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B17" s="42" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43">
         <f>SUM(F10:F16)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="72"/>
       <c r="J17" s="73"/>
     </row>
-    <row r="18" s="12" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
-      <c r="B18" s="25" t="s">
+    <row r="18" s="11" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="67"/>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B19" s="28" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="74"/>
     </row>
-    <row r="20" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B20" s="51">
+    <row r="20" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="48">
         <v>1</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="75"/>
     </row>
-    <row r="21" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B21" s="56">
+    <row r="21" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="53">
         <v>2</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="75"/>
     </row>
-    <row r="22" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B22" s="57">
+    <row r="22" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="54">
         <v>3</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="76"/>
     </row>
     <row r="24" ht="15.6" spans="2:2">
@@ -16973,7 +17102,7 @@
   <sheetPr/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -17023,315 +17152,315 @@
         <v>31</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="60">
         <v>8</v>
       </c>
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="63"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="64"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="65"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="66"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" ht="24" spans="1:10">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="68" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="66" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36">
         <v>3</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33">
         <v>2</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36">
         <v>3</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="33"/>
-      <c r="B12" s="41">
+      <c r="A12" s="32"/>
+      <c r="B12" s="39">
         <v>3</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33">
         <v>4</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33">
         <v>5</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="33"/>
-      <c r="B15" s="41">
+      <c r="A15" s="32"/>
+      <c r="B15" s="39">
         <v>6</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="71"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33">
         <v>7</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="71"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="72"/>
       <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="67"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="51">
+      <c r="A20" s="11"/>
+      <c r="B20" s="48">
         <v>1</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="56">
+      <c r="A21" s="11"/>
+      <c r="B21" s="53">
         <v>2</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="75"/>
     </row>
     <row r="22" ht="16.35" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="57">
+      <c r="A22" s="11"/>
+      <c r="B22" s="54">
         <v>3</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="76"/>
     </row>
   </sheetData>
@@ -17376,4 +17505,414 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.2" spans="2:11">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" ht="21" spans="2:11">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" ht="16.35" spans="2:11">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="60">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="14"/>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="14"/>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" ht="24" spans="2:11">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36">
+        <v>3</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36">
+        <v>3</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="32"/>
+      <c r="C12" s="39">
+        <v>3</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>4</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="70"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="32"/>
+      <c r="C15" s="39">
+        <v>6</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="32"/>
+      <c r="C17" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43">
+        <f>SUM(G10:G16)</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="11"/>
+      <c r="C18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="11"/>
+      <c r="C19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="74"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="11"/>
+      <c r="C20" s="48">
+        <v>1</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="11"/>
+      <c r="C21" s="53">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="75"/>
+    </row>
+    <row r="22" ht="16.35" spans="2:11">
+      <c r="B22" s="11"/>
+      <c r="C22" s="54">
+        <v>3</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:K22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="C5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="C6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_贾聪.xlsx
+++ b/个人日报/个人日报_贾聪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
+    <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -431,6 +432,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>学习</t>
     </r>
     <r>
@@ -452,6 +458,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>学习</t>
     </r>
     <r>
@@ -471,6 +482,24 @@
       <t>语言文件读写相关知识</t>
     </r>
   </si>
+  <si>
+    <t>2019.07.21</t>
+  </si>
+  <si>
+    <t>学习有关软件架构的相关知识</t>
+  </si>
+  <si>
+    <t>编写代码，英文前缀树存储</t>
+  </si>
+  <si>
+    <t>编写代码</t>
+  </si>
+  <si>
+    <t>编写中文对照表</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
 </sst>
 </file>
 
@@ -479,8 +508,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -735,17 +764,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -755,15 +783,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -773,11 +796,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -788,15 +826,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -816,13 +854,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -841,38 +894,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -902,7 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,19 +961,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,43 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,19 +1045,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,37 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,25 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,15 +1551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1596,9 +1616,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,11 +1642,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,157 +1663,157 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="21" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1929,12 +1958,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -15365,6 +15394,79 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="76200"/>
+          <a:ext cx="1213485" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16330,7 +16432,7 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16869,7 +16971,7 @@
       <c r="F11" s="36">
         <v>1.5</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="67"/>
@@ -16879,7 +16981,7 @@
       </c>
     </row>
     <row r="12" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>3</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -16890,7 +16992,7 @@
       <c r="F12" s="36">
         <v>2</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="67"/>
@@ -16907,7 +17009,7 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="67"/>
       <c r="I13" s="68"/>
       <c r="J13" s="70"/>
@@ -16920,20 +17022,20 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="67"/>
       <c r="I14" s="68"/>
       <c r="J14" s="70"/>
     </row>
     <row r="15" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>6</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="67"/>
       <c r="I15" s="68"/>
       <c r="J15" s="70"/>
@@ -16946,7 +17048,7 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="67"/>
       <c r="I16" s="68"/>
       <c r="J16" s="70"/>
@@ -17293,7 +17395,7 @@
       <c r="F11" s="36">
         <v>3</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="67"/>
@@ -17304,14 +17406,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="32"/>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>3</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="67"/>
       <c r="I12" s="68"/>
       <c r="J12" s="69"/>
@@ -17325,7 +17427,7 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="67"/>
       <c r="I13" s="68"/>
       <c r="J13" s="70"/>
@@ -17339,21 +17441,21 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="67"/>
       <c r="I14" s="68"/>
       <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="32"/>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>6</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="67"/>
       <c r="I15" s="68"/>
       <c r="J15" s="70"/>
@@ -17367,7 +17469,7 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="67"/>
       <c r="I16" s="68"/>
       <c r="J16" s="70"/>
@@ -17512,7 +17614,7 @@
   <sheetPr/>
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -17703,7 +17805,7 @@
       <c r="G11" s="36">
         <v>3</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="39" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="67"/>
@@ -17714,14 +17816,14 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="32"/>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>3</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="67"/>
       <c r="J12" s="68"/>
       <c r="K12" s="69"/>
@@ -17735,7 +17837,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="67"/>
       <c r="J13" s="68"/>
       <c r="K13" s="70"/>
@@ -17749,21 +17851,21 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="67"/>
       <c r="J14" s="68"/>
       <c r="K14" s="70"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="32"/>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>6</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="67"/>
       <c r="J15" s="68"/>
       <c r="K15" s="70"/>
@@ -17777,7 +17879,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="67"/>
       <c r="J16" s="68"/>
       <c r="K16" s="70"/>
@@ -17793,6 +17895,424 @@
       <c r="G17" s="43">
         <f>SUM(G10:G16)</f>
         <v>6</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="11"/>
+      <c r="C18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="11"/>
+      <c r="C19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="74"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="11"/>
+      <c r="C20" s="48">
+        <v>1</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="11"/>
+      <c r="C21" s="53">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="75"/>
+    </row>
+    <row r="22" ht="16.35" spans="2:11">
+      <c r="B22" s="11"/>
+      <c r="C22" s="54">
+        <v>3</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:K22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="C5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="C6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.2" spans="2:11">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" ht="21" spans="2:11">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" ht="16.35" spans="2:11">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="60">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="14"/>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="14"/>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" ht="24" spans="2:11">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36">
+        <v>3</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36">
+        <v>3</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="32"/>
+      <c r="C12" s="38">
+        <v>3</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>4</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="70"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="32"/>
+      <c r="C15" s="38">
+        <v>6</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="32"/>
+      <c r="C17" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43">
+        <f>SUM(G10:G16)</f>
+        <v>6.5</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="71"/>

--- a/个人日报/个人日报_贾聪.xlsx
+++ b/个人日报/个人日报_贾聪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
+    <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -500,6 +501,27 @@
   <si>
     <t>否</t>
   </si>
+  <si>
+    <t>2019.07.22</t>
+  </si>
+  <si>
+    <t>编写项目架构代码</t>
+  </si>
+  <si>
+    <t>完成有序排列的中英对照表建立</t>
+  </si>
+  <si>
+    <t>增加中英表的添加排序和删除</t>
+  </si>
+  <si>
+    <t>对表实施二分查找，加快搜索速度</t>
+  </si>
+  <si>
+    <t>完善主菜单内容</t>
+  </si>
+  <si>
+    <t>对英中树和中英表进行初始化</t>
+  </si>
 </sst>
 </file>
 
@@ -507,9 +529,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -764,16 +786,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -783,22 +819,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -810,31 +838,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -854,6 +873,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -861,40 +893,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -931,19 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,19 +971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +995,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,43 +1103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,67 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,6 +1573,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1562,6 +1623,35 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,228 +1679,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="21" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
@@ -15467,6 +15489,79 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="76200"/>
+          <a:ext cx="1213485" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -18024,7 +18119,7 @@
   <sheetPr/>
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -18313,6 +18408,440 @@
       <c r="G17" s="43">
         <f>SUM(G10:G16)</f>
         <v>6.5</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="11"/>
+      <c r="C18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="11"/>
+      <c r="C19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="74"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="11"/>
+      <c r="C20" s="48">
+        <v>1</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="11"/>
+      <c r="C21" s="53">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="75"/>
+    </row>
+    <row r="22" ht="16.35" spans="2:11">
+      <c r="B22" s="11"/>
+      <c r="C22" s="54">
+        <v>3</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:K22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="C5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="C6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.2" spans="2:11">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" ht="21" spans="2:11">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" ht="16.35" spans="2:11">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="60">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="14"/>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="14"/>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" ht="24" spans="2:11">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="32"/>
+      <c r="C12" s="38">
+        <v>3</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>4</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="32"/>
+      <c r="C15" s="38">
+        <v>6</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="32"/>
+      <c r="C17" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43">
+        <f>SUM(G10:G16)</f>
+        <v>7</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="71"/>

--- a/个人日报/个人日报_贾聪.xlsx
+++ b/个人日报/个人日报_贾聪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
+    <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -522,6 +523,24 @@
   <si>
     <t>对英中树和中英表进行初始化</t>
   </si>
+  <si>
+    <t>2019.07.23</t>
+  </si>
+  <si>
+    <t>电子词典</t>
+  </si>
+  <si>
+    <t>解决读入后中文乱码问题</t>
+  </si>
+  <si>
+    <t>完成听写功能</t>
+  </si>
+  <si>
+    <t>完成收藏夹功能</t>
+  </si>
+  <si>
+    <t>自定义的库和小组不一致，需要重构一些代码</t>
+  </si>
 </sst>
 </file>
 
@@ -530,18 +549,13 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -569,11 +583,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -585,7 +594,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -596,13 +606,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -623,6 +633,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -635,8 +650,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -785,11 +804,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -806,16 +854,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -826,13 +874,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -840,20 +901,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -881,42 +929,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -953,7 +972,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +1032,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,13 +1104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,139 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,15 +1592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1597,6 +1607,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1608,41 +1627,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,19 +1663,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1700,151 +1719,151 @@
     <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1859,23 +1878,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1883,181 +1894,188 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2069,49 +2087,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2218,19 +2241,19 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -2239,22 +2262,22 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,7 +2286,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyAlignment="1">
@@ -15617,6 +15640,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="76200"/>
+          <a:ext cx="1213485" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -15912,383 +16008,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="130" customWidth="1"/>
-    <col min="2" max="2" width="9" style="130"/>
-    <col min="3" max="3" width="8.375" style="130" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="130"/>
+    <col min="1" max="1" width="7.5" style="131" customWidth="1"/>
+    <col min="2" max="2" width="9" style="131"/>
+    <col min="3" max="3" width="8.375" style="131" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" s="129" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A1" s="85"/>
-    </row>
-    <row r="2" s="129" customFormat="1" ht="22.2" spans="1:1">
-      <c r="A2" s="85" t="s">
+    <row r="1" s="130" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A1" s="86"/>
+    </row>
+    <row r="2" s="130" customFormat="1" ht="22.2" spans="1:1">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A3" s="88" t="s">
+    <row r="3" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="131"/>
-    </row>
-    <row r="5" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A5" s="131"/>
-    </row>
-    <row r="6" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A6" s="131"/>
-    </row>
-    <row r="7" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A7" s="131"/>
-    </row>
-    <row r="8" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A8" s="131"/>
-    </row>
-    <row r="9" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A9" s="131"/>
-    </row>
-    <row r="10" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A10" s="131"/>
-    </row>
-    <row r="11" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A11" s="131"/>
-    </row>
-    <row r="12" s="129" customFormat="1" ht="17.4" spans="1:3">
-      <c r="A12" s="131"/>
-      <c r="C12" s="132"/>
-    </row>
-    <row r="13" s="129" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A13" s="131"/>
-    </row>
-    <row r="14" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-    </row>
-    <row r="15" s="129" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="135" t="s">
+    <row r="4" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="132"/>
+    </row>
+    <row r="5" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A5" s="132"/>
+    </row>
+    <row r="6" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A6" s="132"/>
+    </row>
+    <row r="7" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A7" s="132"/>
+    </row>
+    <row r="8" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A8" s="132"/>
+    </row>
+    <row r="9" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A9" s="132"/>
+    </row>
+    <row r="10" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A10" s="132"/>
+    </row>
+    <row r="11" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A11" s="132"/>
+    </row>
+    <row r="12" s="130" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A12" s="132"/>
+      <c r="C12" s="133"/>
+    </row>
+    <row r="13" s="130" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A13" s="132"/>
+    </row>
+    <row r="14" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+    </row>
+    <row r="15" s="130" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-    </row>
-    <row r="16" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A16" s="137"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-    </row>
-    <row r="17" s="129" customFormat="1" ht="18" spans="1:9">
-      <c r="A17" s="138" t="s">
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+    </row>
+    <row r="16" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A16" s="138"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+    </row>
+    <row r="17" s="130" customFormat="1" ht="18" spans="1:9">
+      <c r="A17" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-    </row>
-    <row r="18" s="129" customFormat="1" ht="18" spans="1:9">
-      <c r="A18" s="98">
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+    </row>
+    <row r="18" s="130" customFormat="1" ht="18" spans="1:9">
+      <c r="A18" s="99">
         <v>40142</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-    </row>
-    <row r="19" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-    </row>
-    <row r="20" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-    </row>
-    <row r="21" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-    </row>
-    <row r="22" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-    </row>
-    <row r="23" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-    </row>
-    <row r="24" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-    </row>
-    <row r="25" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-    </row>
-    <row r="26" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-    </row>
-    <row r="27" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-    </row>
-    <row r="28" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-    </row>
-    <row r="29" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-    </row>
-    <row r="30" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="133"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-    </row>
-    <row r="31" s="129" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-    </row>
-    <row r="32" s="129" customFormat="1" ht="17.4" spans="1:9">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-    </row>
-    <row r="33" s="129" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A33" s="139" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+    </row>
+    <row r="19" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+    </row>
+    <row r="20" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+    </row>
+    <row r="21" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+    </row>
+    <row r="22" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+    </row>
+    <row r="23" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+    </row>
+    <row r="24" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+    </row>
+    <row r="25" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+    </row>
+    <row r="26" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+    </row>
+    <row r="27" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="134"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+    </row>
+    <row r="28" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+    </row>
+    <row r="29" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+    </row>
+    <row r="30" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+    </row>
+    <row r="31" s="130" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+    </row>
+    <row r="32" s="130" customFormat="1" ht="17.4" spans="1:9">
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+    </row>
+    <row r="33" s="130" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A33" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="144"/>
-    </row>
-    <row r="34" s="129" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A34" s="140" t="s">
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="145"/>
+    </row>
+    <row r="34" s="130" customFormat="1" ht="19.2" spans="1:10">
+      <c r="A34" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="144"/>
-    </row>
-    <row r="35" s="129" customFormat="1" spans="1:10">
-      <c r="A35" s="141"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="144"/>
-    </row>
-    <row r="36" s="129" customFormat="1" spans="1:9">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-    </row>
-    <row r="37" s="129" customFormat="1"/>
-    <row r="38" s="129" customFormat="1"/>
-    <row r="39" s="129" customFormat="1"/>
-    <row r="40" s="129" customFormat="1"/>
-    <row r="41" s="129" customFormat="1"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="145"/>
+    </row>
+    <row r="35" s="130" customFormat="1" spans="1:10">
+      <c r="A35" s="142"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="145"/>
+    </row>
+    <row r="36" s="130" customFormat="1" spans="1:9">
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+    </row>
+    <row r="37" s="130" customFormat="1"/>
+    <row r="38" s="130" customFormat="1"/>
+    <row r="39" s="130" customFormat="1"/>
+    <row r="40" s="130" customFormat="1"/>
+    <row r="41" s="130" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="142"/>
+      <c r="A58" s="143"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="143"/>
+      <c r="A59" s="144"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="145"/>
+      <c r="A101" s="146"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="145"/>
+      <c r="A102" s="146"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="145"/>
+      <c r="A103" s="146"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="145"/>
+      <c r="A104" s="146"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="145"/>
+      <c r="A105" s="146"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="145"/>
+      <c r="A106" s="146"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="145"/>
+      <c r="A107" s="146"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="145"/>
+      <c r="A108" s="146"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="145"/>
+      <c r="A109" s="146"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="145"/>
+      <c r="A110" s="146"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="145"/>
+      <c r="A111" s="146"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="145"/>
+      <c r="A112" s="146"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="145"/>
+      <c r="A113" s="146"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="145"/>
+      <c r="A114" s="146"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="145"/>
+      <c r="A115" s="146"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="145"/>
+      <c r="A116" s="146"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="145"/>
+      <c r="A117" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16312,208 +16408,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="114" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="114" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="114" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="114" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="114"/>
+    <col min="1" max="1" width="12.625" style="115" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="115" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="115" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="115" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:5">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="118"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="120" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A4" s="120">
+    <row r="4" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="123">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" s="113" customFormat="1" spans="1:4">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="122"/>
-    </row>
-    <row r="6" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
-    </row>
-    <row r="7" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-    </row>
-    <row r="8" s="113" customFormat="1" spans="1:4">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="122"/>
-    </row>
-    <row r="9" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-    </row>
-    <row r="10" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A10" s="120"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-    </row>
-    <row r="11" s="113" customFormat="1" spans="1:4">
-      <c r="A11" s="120"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="122"/>
-    </row>
-    <row r="12" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A12" s="120"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-    </row>
-    <row r="13" s="113" customFormat="1" spans="1:4">
-      <c r="A13" s="120"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="122"/>
-    </row>
-    <row r="14" s="113" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A14" s="120"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-    </row>
-    <row r="15" s="113" customFormat="1" spans="1:4">
-      <c r="A15" s="120"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="122"/>
-    </row>
-    <row r="16" s="113" customFormat="1" spans="1:4">
-      <c r="A16" s="120"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="122"/>
-    </row>
-    <row r="17" s="113" customFormat="1" spans="1:4">
-      <c r="A17" s="120"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="122"/>
-    </row>
-    <row r="18" s="113" customFormat="1" spans="1:4">
-      <c r="A18" s="120"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="122"/>
+    <row r="5" s="114" customFormat="1" spans="1:4">
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="123"/>
+    </row>
+    <row r="6" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
+    </row>
+    <row r="7" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
+    </row>
+    <row r="8" s="114" customFormat="1" spans="1:4">
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="123"/>
+    </row>
+    <row r="9" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+    </row>
+    <row r="10" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A10" s="121"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+    </row>
+    <row r="11" s="114" customFormat="1" spans="1:4">
+      <c r="A11" s="121"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="123"/>
+    </row>
+    <row r="12" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A12" s="121"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+    </row>
+    <row r="13" s="114" customFormat="1" spans="1:4">
+      <c r="A13" s="121"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="123"/>
+    </row>
+    <row r="14" s="114" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A14" s="121"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+    </row>
+    <row r="15" s="114" customFormat="1" spans="1:4">
+      <c r="A15" s="121"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="123"/>
+    </row>
+    <row r="16" s="114" customFormat="1" spans="1:4">
+      <c r="A16" s="121"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="123"/>
+    </row>
+    <row r="17" s="114" customFormat="1" spans="1:4">
+      <c r="A17" s="121"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="123"/>
+    </row>
+    <row r="18" s="114" customFormat="1" spans="1:4">
+      <c r="A18" s="121"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="123"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="120"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="122"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="120"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="122"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="123"/>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="120"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="123"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="128"/>
+      <c r="A95" s="129"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="128"/>
+      <c r="A96" s="129"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="128"/>
+      <c r="A97" s="129"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="128"/>
+      <c r="A98" s="129"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="128"/>
+      <c r="A99" s="129"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="128"/>
+      <c r="A100" s="129"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="128"/>
+      <c r="A101" s="129"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="128"/>
+      <c r="A102" s="129"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="128"/>
+      <c r="A103" s="129"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="128"/>
+      <c r="A104" s="129"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="128"/>
+      <c r="A105" s="129"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="128"/>
+      <c r="A106" s="129"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="128"/>
+      <c r="A107" s="129"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="128"/>
+      <c r="A108" s="129"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="128"/>
+      <c r="A109" s="129"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="128"/>
+      <c r="A110" s="129"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="128"/>
+      <c r="A111" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16533,327 +16629,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="83" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="83" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="83" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="83" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="83"/>
+    <col min="1" max="1" width="9.25" style="84" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="84" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="84" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="84" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" s="78" customFormat="1" ht="22.8" spans="1:1">
-      <c r="A1" s="84"/>
-    </row>
-    <row r="2" s="78" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="85" t="s">
+    <row r="1" s="79" customFormat="1" ht="22.8" spans="1:1">
+      <c r="A1" s="85"/>
+    </row>
+    <row r="2" s="79" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="79" customFormat="1" ht="22.8" spans="1:9">
-      <c r="A3" s="86" t="s">
+    <row r="3" s="80" customFormat="1" ht="22.8" spans="1:9">
+      <c r="A3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-    </row>
-    <row r="4" s="78" customFormat="1" ht="17.4" spans="1:1">
-      <c r="A4" s="88" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+    </row>
+    <row r="4" s="79" customFormat="1" ht="17.4" spans="1:1">
+      <c r="A4" s="89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A5" s="89"/>
-    </row>
-    <row r="6" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A6" s="89"/>
-    </row>
-    <row r="7" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A7" s="89"/>
-    </row>
-    <row r="8" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A8" s="89"/>
-    </row>
-    <row r="9" s="78" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="89"/>
-    </row>
-    <row r="10" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A10" s="89"/>
-    </row>
-    <row r="11" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A11" s="89"/>
-    </row>
-    <row r="12" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A12" s="89"/>
-    </row>
-    <row r="13" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A13" s="89"/>
-    </row>
-    <row r="14" s="78" customFormat="1" ht="18" spans="1:1">
-      <c r="A14" s="89"/>
-    </row>
-    <row r="15" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-    </row>
-    <row r="16" s="80" customFormat="1" ht="45" spans="1:8">
-      <c r="A16" s="92" t="s">
+    <row r="5" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A5" s="90"/>
+    </row>
+    <row r="6" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A6" s="90"/>
+    </row>
+    <row r="7" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A7" s="90"/>
+    </row>
+    <row r="8" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A8" s="90"/>
+    </row>
+    <row r="9" s="79" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="90"/>
+    </row>
+    <row r="10" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A10" s="90"/>
+    </row>
+    <row r="11" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A11" s="90"/>
+    </row>
+    <row r="12" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A12" s="90"/>
+    </row>
+    <row r="13" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A13" s="90"/>
+    </row>
+    <row r="14" s="79" customFormat="1" ht="18" spans="1:1">
+      <c r="A14" s="90"/>
+    </row>
+    <row r="15" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+    </row>
+    <row r="16" s="81" customFormat="1" ht="45" spans="1:8">
+      <c r="A16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-    </row>
-    <row r="17" s="80" customFormat="1" spans="1:8">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-    </row>
-    <row r="18" s="78" customFormat="1" ht="53.4" spans="1:8">
-      <c r="A18" s="96" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" s="81" customFormat="1" spans="1:8">
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" s="79" customFormat="1" ht="53.4" spans="1:8">
+      <c r="A18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-    </row>
-    <row r="20" s="78" customFormat="1" ht="46.2" spans="1:8">
-      <c r="A20" s="97"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-    </row>
-    <row r="21" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A21" s="98"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-    </row>
-    <row r="22" s="78" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="99" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+    </row>
+    <row r="19" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+    </row>
+    <row r="20" s="79" customFormat="1" ht="46.2" spans="1:8">
+      <c r="A20" s="98"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+    </row>
+    <row r="21" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A21" s="99"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+    </row>
+    <row r="22" s="79" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-    </row>
-    <row r="23" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-    </row>
-    <row r="24" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-    </row>
-    <row r="25" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-    </row>
-    <row r="26" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-    </row>
-    <row r="27" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-    </row>
-    <row r="28" s="78" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-    </row>
-    <row r="29" s="81" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="101" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+    </row>
+    <row r="23" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+    </row>
+    <row r="24" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+    </row>
+    <row r="25" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+    </row>
+    <row r="26" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+    </row>
+    <row r="27" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" s="79" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+    </row>
+    <row r="29" s="82" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-    </row>
-    <row r="30" s="81" customFormat="1" spans="1:8">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-    </row>
-    <row r="31" s="81" customFormat="1" spans="1:8">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-    </row>
-    <row r="32" s="81" customFormat="1" spans="1:8">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-    </row>
-    <row r="33" s="82" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="105" t="s">
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" s="82" customFormat="1" spans="1:8">
+      <c r="A30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" s="82" customFormat="1" spans="1:8">
+      <c r="A31" s="104"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" s="82" customFormat="1" spans="1:8">
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+    </row>
+    <row r="33" s="83" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="105" t="s">
+      <c r="B33" s="107"/>
+      <c r="C33" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="105" t="s">
+      <c r="D33" s="107"/>
+      <c r="E33" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107" t="s">
+      <c r="F33" s="107"/>
+      <c r="G33" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="106"/>
-    </row>
-    <row r="34" s="82" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="105" t="s">
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" s="83" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="105" t="s">
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-    </row>
-    <row r="35" s="78" customFormat="1" ht="18" spans="1:8">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-    </row>
-    <row r="36" s="78" customFormat="1" ht="19.2" spans="1:8">
-      <c r="A36" s="109"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-    </row>
-    <row r="37" s="78" customFormat="1" ht="18.6" spans="1:8">
-      <c r="A37" s="110"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-    </row>
-    <row r="38" s="78" customFormat="1"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" s="79" customFormat="1" ht="18" spans="1:8">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+    </row>
+    <row r="36" s="79" customFormat="1" ht="19.2" spans="1:8">
+      <c r="A36" s="110"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+    </row>
+    <row r="37" s="79" customFormat="1" ht="18.6" spans="1:8">
+      <c r="A37" s="111"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+    </row>
+    <row r="38" s="79" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="112"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="112"/>
+      <c r="A56" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16879,306 +16975,306 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.25" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="72" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="72" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="72" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="72" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="72" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="72" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
     <row r="1" ht="47.25" customHeight="1" spans="2:10">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="7.5" customHeight="1" spans="2:10">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="21" customHeight="1" spans="2:10">
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" s="73" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B4" s="12" t="s">
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" s="14" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" s="75" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" s="14" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B6" s="18" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" s="75" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" s="14" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B7" s="21" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" s="75" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B8" s="24" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" s="26" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B9" s="27" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" s="76" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="66" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B10" s="33">
+    <row r="10" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32">
         <v>1.5</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B11" s="33">
+    <row r="11" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="29">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32">
         <v>1.5</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="38">
+    <row r="12" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="36">
         <v>3</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32">
         <v>2</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B13" s="33">
+    <row r="13" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="29">
         <v>4</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B14" s="33">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="29">
         <v>5</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B15" s="38">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="36">
         <v>6</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B16" s="33">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="29">
         <v>7</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" s="32" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B17" s="40" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" s="11" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
-      <c r="B18" s="24" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" s="74" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B19" s="27" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="64"/>
+    </row>
+    <row r="19" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="45" t="s">
@@ -17192,9 +17288,9 @@
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="74"/>
-    </row>
-    <row r="20" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B20" s="48">
         <v>1</v>
       </c>
@@ -17205,9 +17301,9 @@
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
-      <c r="J20" s="75"/>
-    </row>
-    <row r="21" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B21" s="53">
         <v>2</v>
       </c>
@@ -17218,9 +17314,9 @@
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="75"/>
-    </row>
-    <row r="22" s="11" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B22" s="54">
         <v>3</v>
       </c>
@@ -17231,23 +17327,23 @@
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
-      <c r="J22" s="76"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="24" ht="15.6" spans="2:2">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="78" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="2:2">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="2:2">
-      <c r="B26" s="77"/>
+      <c r="B26" s="78"/>
     </row>
     <row r="27" ht="15.6" spans="2:2">
-      <c r="B27" s="77"/>
+      <c r="B27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17306,303 +17402,303 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="21" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="16.35" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="62"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="63"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="64"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="65"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" ht="24" spans="1:10">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="66" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33">
+      <c r="A10" s="77"/>
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32">
         <v>3</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33">
+      <c r="A11" s="77"/>
+      <c r="B11" s="29">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32">
         <v>3</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="32"/>
-      <c r="B12" s="38">
+      <c r="A12" s="77"/>
+      <c r="B12" s="36">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33">
+      <c r="A13" s="77"/>
+      <c r="B13" s="29">
         <v>4</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="70"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33">
+      <c r="A14" s="77"/>
+      <c r="B14" s="29">
         <v>5</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="70"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="32"/>
-      <c r="B15" s="38">
+      <c r="A15" s="77"/>
+      <c r="B15" s="36">
         <v>6</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="70"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33">
+      <c r="A16" s="77"/>
+      <c r="B16" s="29">
         <v>7</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="70"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="32"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="65"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="45" t="s">
@@ -17616,10 +17712,10 @@
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="74"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="48">
         <v>1</v>
       </c>
@@ -17630,10 +17726,10 @@
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
-      <c r="J20" s="75"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="53">
         <v>2</v>
       </c>
@@ -17644,10 +17740,10 @@
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="75"/>
+      <c r="J21" s="70"/>
     </row>
     <row r="22" ht="16.35" spans="1:10">
-      <c r="A22" s="11"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="54">
         <v>3</v>
       </c>
@@ -17658,7 +17754,7 @@
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
-      <c r="J22" s="76"/>
+      <c r="J22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17716,303 +17812,303 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="2:11">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="21" spans="2:11">
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" ht="16.35" spans="2:11">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="59" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <v>8</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="61"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="62"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="14"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="64"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="11"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" ht="24" spans="2:11">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="66" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33">
+      <c r="B10" s="77"/>
+      <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32">
         <v>3</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
+      <c r="B11" s="77"/>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32">
         <v>3</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="32"/>
-      <c r="C12" s="38">
+      <c r="B12" s="77"/>
+      <c r="C12" s="36">
         <v>3</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33">
+      <c r="B13" s="77"/>
+      <c r="C13" s="29">
         <v>4</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33">
+      <c r="B14" s="77"/>
+      <c r="C14" s="29">
         <v>5</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="70"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="32"/>
-      <c r="C15" s="38">
+      <c r="B15" s="77"/>
+      <c r="C15" s="36">
         <v>6</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33">
+      <c r="B16" s="77"/>
+      <c r="C16" s="29">
         <v>7</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="32"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41">
         <f>SUM(G10:G16)</f>
         <v>6</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="11"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="11"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="45" t="s">
@@ -18026,10 +18122,10 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="11"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="48">
         <v>1</v>
       </c>
@@ -18040,10 +18136,10 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="75"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="11"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="53">
         <v>2</v>
       </c>
@@ -18054,10 +18150,10 @@
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="75"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" ht="16.35" spans="2:11">
-      <c r="B22" s="11"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="54">
         <v>3</v>
       </c>
@@ -18068,7 +18164,7 @@
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18120,317 +18216,317 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C1" sqref="C1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="2:11">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="21" spans="2:11">
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" ht="16.35" spans="2:11">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="59" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <v>8</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="61"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="62"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="14"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="64"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="11"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" ht="24" spans="2:11">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="66" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33">
+      <c r="B10" s="77"/>
+      <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32">
         <v>3</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
+      <c r="B11" s="77"/>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32">
         <v>3</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="32"/>
-      <c r="C12" s="38">
+      <c r="B12" s="77"/>
+      <c r="C12" s="36">
         <v>3</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32">
         <v>0.5</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69" t="s">
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33">
+      <c r="B13" s="77"/>
+      <c r="C13" s="29">
         <v>4</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33">
+      <c r="B14" s="77"/>
+      <c r="C14" s="29">
         <v>5</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="70"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="32"/>
-      <c r="C15" s="38">
+      <c r="B15" s="77"/>
+      <c r="C15" s="36">
         <v>6</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33">
+      <c r="B16" s="77"/>
+      <c r="C16" s="29">
         <v>7</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="32"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41">
         <f>SUM(G10:G16)</f>
         <v>6.5</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="11"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="11"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="45" t="s">
@@ -18444,10 +18540,10 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="11"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="48">
         <v>1</v>
       </c>
@@ -18458,10 +18554,10 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="75"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="11"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="53">
         <v>2</v>
       </c>
@@ -18472,10 +18568,10 @@
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="75"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" ht="16.35" spans="2:11">
-      <c r="B22" s="11"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="54">
         <v>3</v>
       </c>
@@ -18486,7 +18582,7 @@
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18537,334 +18633,334 @@
   <sheetPr/>
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="2:11">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="21" spans="2:11">
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" ht="16.35" spans="2:11">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="59" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <v>8</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="61"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="62"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="14"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="64"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="11"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="65"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" ht="24" spans="2:11">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="66" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33">
+      <c r="B10" s="77"/>
+      <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32">
         <v>1.5</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
+      <c r="B11" s="77"/>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32">
         <v>1.5</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="32"/>
-      <c r="C12" s="38">
+      <c r="B12" s="77"/>
+      <c r="C12" s="36">
         <v>3</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32">
         <v>1</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69" t="s">
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33">
+      <c r="B13" s="77"/>
+      <c r="C13" s="29">
         <v>4</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32">
         <v>1.5</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69" t="s">
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33">
+      <c r="B14" s="77"/>
+      <c r="C14" s="29">
         <v>5</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32">
         <v>1.5</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="32"/>
-      <c r="C15" s="38">
+      <c r="B15" s="77"/>
+      <c r="C15" s="36">
         <v>6</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="70"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33">
+      <c r="B16" s="77"/>
+      <c r="C16" s="29">
         <v>7</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="70"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="32"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41">
         <f>SUM(G10:G16)</f>
         <v>7</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="11"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="65"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="11"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="45" t="s">
@@ -18878,10 +18974,10 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="11"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="48">
         <v>1</v>
       </c>
@@ -18892,10 +18988,10 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="75"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="11"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="53">
         <v>2</v>
       </c>
@@ -18906,10 +19002,10 @@
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="75"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" ht="16.35" spans="2:11">
-      <c r="B22" s="11"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="54">
         <v>3</v>
       </c>
@@ -18920,7 +19016,7 @@
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18964,4 +19060,410 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.2" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="21" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="16.35" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="10">
+        <v>8</v>
+      </c>
+      <c r="I3" s="59"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="60"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" ht="24" spans="1:9">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32">
+        <v>3</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <v>2</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="36">
+        <v>3</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29">
+        <v>4</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="29">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="36">
+        <v>6</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="29">
+        <v>7</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="67"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="68"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="64"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="69"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="48">
+        <v>1</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="53">
+        <v>2</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" ht="16.35" spans="1:9">
+      <c r="A22" s="54">
+        <v>3</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_贾聪.xlsx
+++ b/个人日报/个人日报_贾聪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
+    <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="87">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -541,6 +542,27 @@
   <si>
     <t>自定义的库和小组不一致，需要重构一些代码</t>
   </si>
+  <si>
+    <t>2019.07.24</t>
+  </si>
+  <si>
+    <t>编写项目功能代码和学习MFC的使用</t>
+  </si>
+  <si>
+    <t>重新根据小组的词库进行架构重写</t>
+  </si>
+  <si>
+    <t>完善收藏夹功能</t>
+  </si>
+  <si>
+    <t>完成前缀树的前缀搜索</t>
+  </si>
+  <si>
+    <t>学习MFC</t>
+  </si>
+  <si>
+    <t>学习和编写代码</t>
+  </si>
 </sst>
 </file>
 
@@ -548,14 +570,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -583,6 +610,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -594,8 +626,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -606,13 +637,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -633,11 +664,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -650,12 +676,8 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -804,51 +826,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -862,21 +860,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -886,22 +878,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -921,6 +900,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -934,8 +940,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -972,7 +994,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,13 +1072,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,151 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,45 +1614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1664,13 +1647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="23"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,6 +1667,26 @@
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1698,160 +1705,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
@@ -1862,8 +1884,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1878,204 +1900,217 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2087,54 +2122,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2241,19 +2263,19 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -2262,22 +2284,22 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2286,7 +2308,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyAlignment="1">
@@ -15713,6 +15735,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="76200"/>
+          <a:ext cx="1213485" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -16397,6 +16492,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.2" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" ht="21" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" ht="16.35" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="62">
+        <v>8</v>
+      </c>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" ht="24" spans="1:10">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37">
+        <v>3</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="33"/>
+      <c r="B12" s="40">
+        <v>3</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34">
+        <v>4</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37">
+        <v>3</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="33"/>
+      <c r="B15" s="40">
+        <v>6</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34">
+        <v>7</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="33"/>
+      <c r="B17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12"/>
+      <c r="B20" s="51">
+        <v>1</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12"/>
+      <c r="B21" s="56">
+        <v>2</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="76"/>
+    </row>
+    <row r="22" ht="16.35" spans="1:10">
+      <c r="A22" s="12"/>
+      <c r="B22" s="57">
+        <v>3</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -16975,359 +17498,359 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="72" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="72" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="72" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="72" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="72" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="72" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="72" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="72"/>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47.25" customHeight="1" spans="2:10">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" ht="7.5" customHeight="1" spans="2:10">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" s="73" customFormat="1" ht="21" customHeight="1" spans="2:10">
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="62">
         <v>8</v>
       </c>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B4" s="11" t="s">
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" s="75" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" s="15" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" s="75" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" s="15" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="62"/>
-    </row>
-    <row r="7" s="75" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B7" s="19" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" s="15" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B8" s="22" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" s="76" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B9" s="24" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="65" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B10" s="29">
+    <row r="10" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32">
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37">
         <v>1.5</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="66" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B11" s="29">
+    <row r="11" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37">
         <v>1.5</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="66" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="36">
+    <row r="12" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37">
         <v>2</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="66" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B13" s="29">
+    <row r="13" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="67"/>
-    </row>
-    <row r="14" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B14" s="29">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="67"/>
-    </row>
-    <row r="15" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B15" s="36">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="40">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="67"/>
-    </row>
-    <row r="16" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B16" s="29">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="67"/>
-    </row>
-    <row r="17" s="77" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B17" s="38" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" s="33" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" s="74" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
-      <c r="B18" s="22" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="64"/>
-    </row>
-    <row r="19" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B19" s="24" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B20" s="48">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="51">
         <v>1</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="70"/>
-    </row>
-    <row r="21" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B21" s="53">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="56">
         <v>2</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="70"/>
-    </row>
-    <row r="22" s="74" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B22" s="54">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="76"/>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="57">
         <v>3</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="71"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="77"/>
     </row>
     <row r="24" ht="15.6" spans="2:2">
       <c r="B24" s="78" t="s">
@@ -17402,359 +17925,359 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="1:10">
-      <c r="A1" s="72"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" ht="21" spans="1:10">
-      <c r="A2" s="72"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="16.35" spans="1:10">
-      <c r="A3" s="73"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="62">
         <v>8</v>
       </c>
-      <c r="J3" s="59"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="74"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="60"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="75"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="61"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="75"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="62"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="75"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="63"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="74"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="64"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" ht="24" spans="1:10">
-      <c r="A9" s="76"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="65" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="77"/>
-      <c r="B10" s="29">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32">
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37">
         <v>3</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="66" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="77"/>
-      <c r="B11" s="29">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37">
         <v>3</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="66" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="77"/>
-      <c r="B12" s="36">
+      <c r="A12" s="33"/>
+      <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="66"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="77"/>
-      <c r="B13" s="29">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="67"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="77"/>
-      <c r="B14" s="29">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="67"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="77"/>
-      <c r="B15" s="36">
+      <c r="A15" s="33"/>
+      <c r="B15" s="40">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="67"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="77"/>
-      <c r="B16" s="29">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="67"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="77"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="74"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="64"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="74"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="69"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="74"/>
-      <c r="B20" s="48">
+      <c r="A20" s="12"/>
+      <c r="B20" s="51">
         <v>1</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="70"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="74"/>
-      <c r="B21" s="53">
+      <c r="A21" s="12"/>
+      <c r="B21" s="56">
         <v>2</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="70"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" ht="16.35" spans="1:10">
-      <c r="A22" s="74"/>
-      <c r="B22" s="54">
+      <c r="A22" s="12"/>
+      <c r="B22" s="57">
         <v>3</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="71"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17812,359 +18335,359 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="2:11">
-      <c r="B1" s="72"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="21" spans="2:11">
-      <c r="B2" s="72"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" ht="16.35" spans="2:11">
-      <c r="B3" s="73"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="62">
         <v>8</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="74"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="60"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="75"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="61"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="75"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="62"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="75"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="74"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="64"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" ht="24" spans="2:11">
-      <c r="B9" s="76"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="65" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="77"/>
-      <c r="C10" s="29">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37">
         <v>3</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="66" t="s">
+      <c r="I10" s="39"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="77"/>
-      <c r="C11" s="29">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37">
         <v>3</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="66" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="77"/>
-      <c r="C12" s="36">
+      <c r="B12" s="33"/>
+      <c r="C12" s="40">
         <v>3</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="66"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="77"/>
-      <c r="C13" s="29">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34">
         <v>4</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="67"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="77"/>
-      <c r="C14" s="29">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34">
         <v>5</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="67"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="77"/>
-      <c r="C15" s="36">
+      <c r="B15" s="33"/>
+      <c r="C15" s="40">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="77"/>
-      <c r="C16" s="29">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34">
         <v>7</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="77"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41">
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45">
         <f>SUM(G10:G16)</f>
         <v>6</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="68"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="74"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="64"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="74"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="69"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="74"/>
-      <c r="C20" s="48">
+      <c r="B20" s="12"/>
+      <c r="C20" s="51">
         <v>1</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="74"/>
-      <c r="C21" s="53">
+      <c r="B21" s="12"/>
+      <c r="C21" s="56">
         <v>2</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" ht="16.35" spans="2:11">
-      <c r="B22" s="74"/>
-      <c r="C22" s="54">
+      <c r="B22" s="12"/>
+      <c r="C22" s="57">
         <v>3</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="71"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18222,367 +18745,367 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="2:11">
-      <c r="B1" s="72"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="21" spans="2:11">
-      <c r="B2" s="72"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" ht="16.35" spans="2:11">
-      <c r="B3" s="73"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="62">
         <v>8</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="74"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="60"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="75"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="61"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="75"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="62"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="75"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="74"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="64"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" ht="24" spans="2:11">
-      <c r="B9" s="76"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="65" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="77"/>
-      <c r="C10" s="29">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37">
         <v>3</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="66" t="s">
+      <c r="I10" s="39"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="77"/>
-      <c r="C11" s="29">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37">
         <v>3</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="66" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="77"/>
-      <c r="C12" s="36">
+      <c r="B12" s="33"/>
+      <c r="C12" s="40">
         <v>3</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37">
         <v>0.5</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="66" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="77"/>
-      <c r="C13" s="29">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34">
         <v>4</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="67"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="77"/>
-      <c r="C14" s="29">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34">
         <v>5</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="67"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="77"/>
-      <c r="C15" s="36">
+      <c r="B15" s="33"/>
+      <c r="C15" s="40">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="77"/>
-      <c r="C16" s="29">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34">
         <v>7</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="77"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41">
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45">
         <f>SUM(G10:G16)</f>
         <v>6.5</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="68"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="74"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="64"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="74"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="69"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="74"/>
-      <c r="C20" s="48">
+      <c r="B20" s="12"/>
+      <c r="C20" s="51">
         <v>1</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="74"/>
-      <c r="C21" s="53">
+      <c r="B21" s="12"/>
+      <c r="C21" s="56">
         <v>2</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" ht="16.35" spans="2:11">
-      <c r="B22" s="74"/>
-      <c r="C22" s="54">
+      <c r="B22" s="12"/>
+      <c r="C22" s="57">
         <v>3</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="71"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18640,383 +19163,383 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="2:11">
-      <c r="B1" s="72"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="21" spans="2:11">
-      <c r="B2" s="72"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" ht="16.35" spans="2:11">
-      <c r="B3" s="73"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="62">
         <v>8</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="74"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="60"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="75"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="61"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="75"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="62"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="75"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="74"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="64"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" ht="24" spans="2:11">
-      <c r="B9" s="76"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="65" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="77"/>
-      <c r="C10" s="29">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37">
         <v>1.5</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="66" t="s">
+      <c r="I10" s="39"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="77"/>
-      <c r="C11" s="29">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37">
         <v>1.5</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="66" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="77"/>
-      <c r="C12" s="36">
+      <c r="B12" s="33"/>
+      <c r="C12" s="40">
         <v>3</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37">
         <v>1</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="66" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="77"/>
-      <c r="C13" s="29">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37">
         <v>1.5</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="66" t="s">
+      <c r="I13" s="39"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="77"/>
-      <c r="C14" s="29">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34">
         <v>5</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37">
         <v>1.5</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="66" t="s">
+      <c r="I14" s="39"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="77"/>
-      <c r="C15" s="36">
+      <c r="B15" s="33"/>
+      <c r="C15" s="40">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="77"/>
-      <c r="C16" s="29">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34">
         <v>7</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="67"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="77"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41">
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45">
         <f>SUM(G10:G16)</f>
         <v>7</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="68"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="74"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="64"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="74"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="69"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="74"/>
-      <c r="C20" s="48">
+      <c r="B20" s="12"/>
+      <c r="C20" s="51">
         <v>1</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="74"/>
-      <c r="C21" s="53">
+      <c r="B21" s="12"/>
+      <c r="C21" s="56">
         <v>2</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" ht="16.35" spans="2:11">
-      <c r="B22" s="74"/>
-      <c r="C22" s="54">
+      <c r="B22" s="12"/>
+      <c r="C22" s="57">
         <v>3</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="71"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -19067,362 +19590,362 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.2" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="21" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="16.35" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="62">
         <v>8</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="61"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="62"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="63"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" ht="24" spans="1:9">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="65" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="29">
+      <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37">
         <v>3</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="66" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29">
+      <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37">
         <v>1.5</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="66" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="36">
+      <c r="A12" s="40">
         <v>3</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37">
         <v>1</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="66" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29">
+      <c r="A13" s="34">
         <v>4</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37">
         <v>1.5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="66" t="s">
+      <c r="G13" s="39"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="29">
+      <c r="A14" s="34">
         <v>5</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="66"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="36">
+      <c r="A15" s="40">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="67"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="29">
+      <c r="A16" s="34">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="67"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="68"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="69"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="48">
+      <c r="A20" s="51">
         <v>1</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="70"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="53">
+      <c r="A21" s="56">
         <v>2</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="70"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" ht="16.35" spans="1:9">
-      <c r="A22" s="54">
+      <c r="A22" s="57">
         <v>3</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="71"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/个人日报/个人日报_贾聪.xlsx
+++ b/个人日报/个人日报_贾聪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
     <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
+    <sheet name="2019-7-25" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="93">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -563,6 +564,24 @@
   <si>
     <t>学习和编写代码</t>
   </si>
+  <si>
+    <t>2019.07.25</t>
+  </si>
+  <si>
+    <t>学习MFC的知识并制作小游戏模块</t>
+  </si>
+  <si>
+    <t>编写小游戏选项和题目</t>
+  </si>
+  <si>
+    <t>小游戏计时器和分数</t>
+  </si>
+  <si>
+    <t>小游戏技能模块</t>
+  </si>
+  <si>
+    <t>小游戏开始暂停模块</t>
+  </si>
 </sst>
 </file>
 
@@ -571,8 +590,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -826,10 +845,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -845,14 +885,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -864,23 +898,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -901,41 +965,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -953,18 +984,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -994,7 +1013,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,19 +1061,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,37 +1145,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,97 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,15 +1636,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color indexed="62"/>
       </bottom>
@@ -1647,46 +1657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1720,163 +1695,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -8858,6 +8877,79 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="76200"/>
+          <a:ext cx="1213485" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16497,8 +16589,8 @@
   <sheetPr/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -16593,7 +16685,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -16609,7 +16701,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -16796,6 +16888,434 @@
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>8</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12"/>
+      <c r="B20" s="51">
+        <v>1</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12"/>
+      <c r="B21" s="56">
+        <v>2</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="76"/>
+    </row>
+    <row r="22" ht="16.35" spans="1:10">
+      <c r="A22" s="12"/>
+      <c r="B22" s="57">
+        <v>3</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.2" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" ht="21" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" ht="16.35" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="62">
+        <v>8</v>
+      </c>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" ht="24" spans="1:10">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="33"/>
+      <c r="B12" s="40">
+        <v>3</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34">
+        <v>4</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="33"/>
+      <c r="B15" s="40">
+        <v>6</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34">
+        <v>7</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="33"/>
+      <c r="B17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="47"/>
